--- a/src/test/resources/Excel.xlsx
+++ b/src/test/resources/Excel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>ClientName</t>
   </si>
@@ -55,6 +55,51 @@
   </si>
   <si>
     <t>RDX</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Ni Number</t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>Sort Code</t>
+  </si>
+  <si>
+    <t>Abhijith</t>
+  </si>
+  <si>
+    <t>Shaji</t>
+  </si>
+  <si>
+    <t>19-12-1997</t>
+  </si>
+  <si>
+    <t>Alappuzha</t>
+  </si>
+  <si>
+    <t>abhijith@gmail.com</t>
+  </si>
+  <si>
+    <t>abhijith</t>
   </si>
 </sst>
 </file>
@@ -99,7 +144,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
@@ -383,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,9 +506,98 @@
         <v>11</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>7907390262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>65665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>676003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>13434535536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>43553</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
